--- a/spliced/walkingToRunning/2023-03-27_19-49-05/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-49-05/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.77978897094727</v>
+        <v>3.73009729385376</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.277233123779297</v>
+        <v>-2.067999362945557</v>
       </c>
       <c r="C2" t="n">
-        <v>9.730603218078612</v>
+        <v>2.923094749450684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.897948265075684</v>
+        <v>1.413437724113464</v>
       </c>
       <c r="B3" t="n">
-        <v>1.876962661743164</v>
+        <v>-7.171976566314697</v>
       </c>
       <c r="C3" t="n">
-        <v>4.303222179412842</v>
+        <v>6.755977630615234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17.21874618530273</v>
+        <v>-4.193170547485352</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.779304504394531</v>
+        <v>-4.375148296356201</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.521855354309082</v>
+        <v>1.568653106689453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.876998901367188</v>
+        <v>-1.307081580162048</v>
       </c>
       <c r="B5" t="n">
-        <v>3.794233560562134</v>
+        <v>-2.807691097259521</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4165830612182617</v>
+        <v>-1.606552600860596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1654682159423828</v>
+        <v>-1.827142477035522</v>
       </c>
       <c r="B6" t="n">
-        <v>-41.74227905273438</v>
+        <v>0.1487736701965332</v>
       </c>
       <c r="C6" t="n">
-        <v>9.125425338745115</v>
+        <v>4.701539993286133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16.16831207275391</v>
+        <v>-1.866428852081299</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.528035402297974</v>
+        <v>4.58729076385498</v>
       </c>
       <c r="C7" t="n">
-        <v>29.5200309753418</v>
+        <v>1.570873260498047</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2412894368171692</v>
+        <v>1.589986324310303</v>
       </c>
       <c r="B8" t="n">
-        <v>4.501626968383789</v>
+        <v>-0.6990594863891602</v>
       </c>
       <c r="C8" t="n">
-        <v>4.947979927062988</v>
+        <v>7.147370338439941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-14.82570934295654</v>
+        <v>11.77978897094727</v>
       </c>
       <c r="B9" t="n">
-        <v>-18.40331840515137</v>
+        <v>-1.277233123779297</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.339614391326904</v>
+        <v>9.730603218078612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.732851982116699</v>
+        <v>4.897948265075684</v>
       </c>
       <c r="B10" t="n">
-        <v>11.58825302124023</v>
+        <v>1.876962661743164</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.568616628646851</v>
+        <v>4.303222179412842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-8.033671379089355</v>
+        <v>17.21874618530273</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.333880424499511</v>
+        <v>-8.779304504394531</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.920849800109863</v>
+        <v>-3.521855354309082</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13.30204772949219</v>
+        <v>4.876998901367188</v>
       </c>
       <c r="B12" t="n">
-        <v>-27.35689926147461</v>
+        <v>3.794233560562134</v>
       </c>
       <c r="C12" t="n">
-        <v>14.50175476074219</v>
+        <v>-0.4165830612182617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-3.511280059814453</v>
+        <v>0.1654682159423828</v>
       </c>
       <c r="B13" t="n">
-        <v>11.19524669647217</v>
+        <v>-41.74227905273438</v>
       </c>
       <c r="C13" t="n">
-        <v>6.339620590209961</v>
+        <v>9.125425338745115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.829581499099731</v>
+        <v>16.16831207275391</v>
       </c>
       <c r="B14" t="n">
-        <v>-56.68034744262695</v>
+        <v>-3.528035402297974</v>
       </c>
       <c r="C14" t="n">
-        <v>7.749513149261475</v>
+        <v>29.5200309753418</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-12.45886611938477</v>
+        <v>-0.2412894368171692</v>
       </c>
       <c r="B15" t="n">
-        <v>26.94960594177246</v>
+        <v>4.501626968383789</v>
       </c>
       <c r="C15" t="n">
-        <v>-9.934419631958008</v>
+        <v>4.947979927062988</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-15.69838333129883</v>
+        <v>-14.82570934295654</v>
       </c>
       <c r="B16" t="n">
-        <v>4.704256057739258</v>
+        <v>-18.40331840515137</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.9078369140625</v>
+        <v>-2.339614391326904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-22.81047821044922</v>
+        <v>-2.732851982116699</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.102127075195312</v>
+        <v>11.58825302124023</v>
       </c>
       <c r="C17" t="n">
-        <v>3.835212230682373</v>
+        <v>-3.568616628646851</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26.74444198608398</v>
+        <v>-8.033671379089355</v>
       </c>
       <c r="B18" t="n">
-        <v>23.38513946533203</v>
+        <v>-1.333880424499511</v>
       </c>
       <c r="C18" t="n">
-        <v>12.87228775024414</v>
+        <v>-8.920849800109863</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15.44845008850098</v>
+        <v>13.30204772949219</v>
       </c>
       <c r="B19" t="n">
-        <v>10.10699462890625</v>
+        <v>-27.35689926147461</v>
       </c>
       <c r="C19" t="n">
-        <v>11.63222694396973</v>
+        <v>14.50175476074219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.591778755187989</v>
+        <v>-3.511280059814453</v>
       </c>
       <c r="B20" t="n">
-        <v>-18.45157623291016</v>
+        <v>11.19524669647217</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.295619010925291</v>
+        <v>6.339620590209961</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.829581499099731</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-56.68034744262695</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.749513149261475</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-12.45886611938477</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26.94960594177246</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-9.934419631958008</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-15.69838333129883</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.704256057739258</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.9078369140625</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-22.81047821044922</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-8.102127075195312</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.835212230682373</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26.74444198608398</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23.38513946533203</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12.87228775024414</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>15.44845008850098</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10.10699462890625</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11.63222694396973</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.591778755187989</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-18.45157623291016</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.295619010925291</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>14.80349922180176</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>22.9969539642334</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>-1.046570301055908</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-12.98141479492188</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-5.830618858337402</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.131386756896973</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>15.02213287353516</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-47.13114547729492</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.131996154785156</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-2.31139087677002</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14.0579719543457</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.640069961547852</v>
       </c>
     </row>
   </sheetData>
